--- a/lib/report/benchmark_report/web14/exl/202206/jsliu__bank_test_&_city_(HF)(202206)_KRD.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202206/jsliu__bank_test_&_city_(HF)(202206)_KRD.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: June, 2022        Evaluation Date: June 30, 2022</t>
   </si>
   <si>
-    <t>Printed on: 08/08/22 2:51:51 PM</t>
+    <t>Printed on: 08/09/22 10:02:28 AM</t>
   </si>
   <si>
     <t>Comments:</t>
